--- a/medicine/Enfance/Images_Doc/Images_Doc.xlsx
+++ b/medicine/Enfance/Images_Doc/Images_Doc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Images Doc est un magazine mensuel du groupe français Bayard presse. Né en janvier 1989, il est destiné aux enfants de 8 à 12 ans auxquels il propose d'explorer quatre thématiques documentaires : la nature, le monde, l'histoire et la science.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Images Doc est un magazine à tirage mensuel, créé en 1989 par le groupe de presse français Bayard[1]. Son écriture visuelle est avant tout photographique ; il diffuse notamment des reportages réalisés par des photographes renommés. Des spécialistes sont sollicités pour apporter à l'équipe de rédaction leur relecture scientifique du contenu éditorial. Dans ses pages, Images Doc propose à son jeune lectorat de réaliser des expériences didactiques et le sensibilise à la protection de l'environnement par la mise en avant de problématiques relatives au développement durable.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Images Doc est un magazine à tirage mensuel, créé en 1989 par le groupe de presse français Bayard. Son écriture visuelle est avant tout photographique ; il diffuse notamment des reportages réalisés par des photographes renommés. Des spécialistes sont sollicités pour apporter à l'équipe de rédaction leur relecture scientifique du contenu éditorial. Dans ses pages, Images Doc propose à son jeune lectorat de réaliser des expériences didactiques et le sensibilise à la protection de l'environnement par la mise en avant de problématiques relatives au développement durable.
 Le premier numéro parait en janvier 1980 en offre promotionnelle de vingt francs au lieu de vingt-sept francs (comme le numéro de février de la même année). La une de ce numéro annonce des sujets qui portent sur l'hibernation, la Grèce antique et un reportage photo au Sahara, mais le numéro propose d'autres sujets non annoncés en une (comme l'Airbus A320, présenté comme "l'avion du futur"). 
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Rubriques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Tarzine et les Malopatt »
 « C'est l'actu » : découverte de l'actu en photo
@@ -590,11 +606,13 @@
           <t>Podcast</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Images Doc a créé deux podcasts pour les enfants :
-« Qui a inventé » : le podcast qui raconte les petites et les grandes histoires des inventions qui ont changé l'humanité[2]
-« Curieux de science » : un podcast en coproduction avec le Muséum national d'histoire naturelle qui invite petits et grands à explorer de grandes questions des sciences de la vie, de l’humain et de la Terre[3].</t>
+« Qui a inventé » : le podcast qui raconte les petites et les grandes histoires des inventions qui ont changé l'humanité
+« Curieux de science » : un podcast en coproduction avec le Muséum national d'histoire naturelle qui invite petits et grands à explorer de grandes questions des sciences de la vie, de l’humain et de la Terre.</t>
         </is>
       </c>
     </row>
